--- a/example thesises/statistics example thesis(average number of pages per section).xlsx
+++ b/example thesises/statistics example thesis(average number of pages per section).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7030"/>
+    <workbookView windowWidth="23040" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -171,10 +171,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -192,20 +192,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -214,16 +200,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,7 +230,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,9 +244,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,14 +264,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -314,6 +298,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -323,7 +315,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,19 +345,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,163 +435,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,6 +536,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -602,6 +611,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -616,173 +636,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1118,20 +1118,20 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.8181818181818" customWidth="1"/>
+    <col min="1" max="1" width="33.8148148148148" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="8" width="10.6363636363636" customWidth="1"/>
-    <col min="9" max="9" width="19.5454545454545" customWidth="1"/>
-    <col min="10" max="10" width="16.4545454545455" customWidth="1"/>
-    <col min="11" max="11" width="33.0909090909091" customWidth="1"/>
-    <col min="12" max="12" width="20.4545454545455" customWidth="1"/>
-    <col min="13" max="13" width="17.4545454545455" customWidth="1"/>
-    <col min="14" max="14" width="18.6363636363636" customWidth="1"/>
+    <col min="3" max="8" width="10.6388888888889" customWidth="1"/>
+    <col min="9" max="9" width="19.5462962962963" customWidth="1"/>
+    <col min="10" max="10" width="16.4537037037037" customWidth="1"/>
+    <col min="11" max="11" width="33.0925925925926" customWidth="1"/>
+    <col min="12" max="12" width="20.4537037037037" customWidth="1"/>
+    <col min="13" max="13" width="17.4537037037037" customWidth="1"/>
+    <col min="14" max="14" width="18.6388888888889" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1201,7 +1201,6 @@
       <c r="F2" s="1">
         <v>5.5</v>
       </c>
-      <c r="G2" s="1"/>
       <c r="H2" s="1">
         <v>4.5</v>
       </c>
@@ -2031,13 +2030,17 @@
         <v>13.75</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="2">
         <f>SUM(B22:D22)</f>
         <v>20.6875</v>
+      </c>
+      <c r="F25" s="2">
+        <f>SUM(B22:F22)</f>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:2">
